--- a/chunks.xlsx
+++ b/chunks.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrik\git\motherload\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C6DCA0E-523A-4F5F-A0E7-3D9A7A1A42C3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{F04F61DF-67C8-41BE-9FF4-4B626CDCE207}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5652" xr2:uid="{66F82866-6E36-4150-9862-914BE4EBD11E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27930" windowHeight="10410" xr2:uid="{66F82866-6E36-4150-9862-914BE4EBD11E}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <oleSize ref="A1:BO23"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -282,68 +284,17 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,11 +377,62 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -749,17 +751,17 @@
   <dimension ref="A1:AW49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA12" sqref="AA12"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.88671875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" style="11"/>
-    <col min="2" max="2" width="3.88671875" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="3.88671875" style="1"/>
+    <col min="1" max="1" width="3.85546875" style="11"/>
+    <col min="2" max="2" width="3.85546875" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="3.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" s="11" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:49" s="11" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="11">
         <v>0</v>
       </c>
@@ -905,7 +907,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>0</v>
       </c>
@@ -1101,7 +1103,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -1692,7 +1694,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -1889,7 +1891,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -2086,7 +2088,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -2283,7 +2285,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -2480,7 +2482,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -2677,7 +2679,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -2874,7 +2876,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -3071,7 +3073,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -3662,7 +3664,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="17" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>15</v>
       </c>
@@ -4056,7 +4058,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="18" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>16</v>
       </c>
@@ -4252,7 +4254,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="19" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>17</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="20" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>18</v>
       </c>
@@ -4525,15 +4527,15 @@
         <f t="shared" si="83"/>
         <v>1057</v>
       </c>
-      <c r="T20" s="60">
+      <c r="T20" s="14">
         <f t="shared" si="84"/>
         <v>1058</v>
       </c>
-      <c r="U20" s="60">
+      <c r="U20" s="14">
         <f t="shared" si="85"/>
         <v>1059</v>
       </c>
-      <c r="V20" s="60">
+      <c r="V20" s="14">
         <f t="shared" si="86"/>
         <v>1060</v>
       </c>
@@ -4646,7 +4648,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="21" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
@@ -4722,15 +4724,15 @@
         <f t="shared" si="83"/>
         <v>1073</v>
       </c>
-      <c r="T21" s="60">
+      <c r="T21" s="14">
         <f t="shared" si="84"/>
         <v>1074</v>
       </c>
-      <c r="U21" s="61">
+      <c r="U21" s="15">
         <f t="shared" si="85"/>
         <v>1075</v>
       </c>
-      <c r="V21" s="60">
+      <c r="V21" s="14">
         <f t="shared" si="86"/>
         <v>1076</v>
       </c>
@@ -4843,7 +4845,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="22" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>20</v>
       </c>
@@ -4919,15 +4921,15 @@
         <f t="shared" si="83"/>
         <v>1089</v>
       </c>
-      <c r="T22" s="60">
+      <c r="T22" s="14">
         <f t="shared" si="84"/>
         <v>1090</v>
       </c>
-      <c r="U22" s="60">
+      <c r="U22" s="14">
         <f t="shared" si="85"/>
         <v>1091</v>
       </c>
-      <c r="V22" s="60">
+      <c r="V22" s="14">
         <f t="shared" si="86"/>
         <v>1092</v>
       </c>
@@ -5040,7 +5042,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="23" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>21</v>
       </c>
@@ -5237,7 +5239,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="24" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>22</v>
       </c>
@@ -5434,7 +5436,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="25" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>23</v>
       </c>
@@ -5631,7 +5633,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="26" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>24</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="27" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>25</v>
       </c>
@@ -6025,7 +6027,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="28" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>26</v>
       </c>
@@ -6222,7 +6224,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="29" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>27</v>
       </c>
@@ -6419,7 +6421,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="30" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>28</v>
       </c>
@@ -6616,7 +6618,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="31" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>29</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="32" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11">
         <v>30</v>
       </c>
@@ -7010,7 +7012,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="33" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:49" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>31</v>
       </c>
@@ -7207,7 +7209,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="34" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11">
         <v>32</v>
       </c>
@@ -7403,7 +7405,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="35" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11">
         <v>33</v>
       </c>
@@ -7600,7 +7602,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="36" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11">
         <v>34</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="37" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11">
         <v>35</v>
       </c>
@@ -7994,7 +7996,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="38" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11">
         <v>36</v>
       </c>
@@ -8191,7 +8193,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="39" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11">
         <v>37</v>
       </c>
@@ -8388,7 +8390,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="40" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11">
         <v>38</v>
       </c>
@@ -8585,7 +8587,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="41" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11">
         <v>39</v>
       </c>
@@ -8782,7 +8784,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="42" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11">
         <v>40</v>
       </c>
@@ -8979,7 +8981,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="43" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11">
         <v>41</v>
       </c>
@@ -9176,7 +9178,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="44" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11">
         <v>42</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="45" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11">
         <v>43</v>
       </c>
@@ -9570,7 +9572,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="46" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11">
         <v>44</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="47" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:49" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11">
         <v>45</v>
       </c>
@@ -10369,763 +10371,714 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56C97BCA-241A-495E-AE07-ED0A451CEA62}">
-  <dimension ref="C1:AM22"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:K7"/>
+    <sheetView zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11:Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="4" style="13"/>
-    <col min="27" max="38" width="4" style="14"/>
-    <col min="39" max="16384" width="4" style="13"/>
+    <col min="1" max="26" width="4" style="12"/>
+    <col min="27" max="38" width="4" style="13"/>
+    <col min="39" max="16384" width="4" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="15" t="s">
+    <row r="1" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="17"/>
-      <c r="O2" s="15" t="s">
+      <c r="D2" s="54"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="17"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="19"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="12" t="s">
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="54"/>
+      <c r="W2" s="55"/>
+      <c r="X2" s="43"/>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="45"/>
+      <c r="AF2" s="43"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
     </row>
-    <row r="3" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="21"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="21"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="26"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="25"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
-      <c r="AL3" s="12"/>
-      <c r="AM3" s="12"/>
+    <row r="3" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="58"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="58"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="58"/>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="47"/>
+      <c r="Z3" s="48"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="47"/>
+      <c r="AH3" s="48"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
     </row>
-    <row r="4" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="29"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="32"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
-      <c r="AL4" s="12"/>
-      <c r="AM4" s="12"/>
+    <row r="4" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="59"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="49"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AF4" s="49"/>
+      <c r="AG4" s="50"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
     </row>
-    <row r="5" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="33" t="s">
+    <row r="5" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="33"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="33"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="33"/>
-      <c r="V5" s="34"/>
-      <c r="W5" s="35"/>
-      <c r="X5" s="18"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="20"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="12" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AF5" s="53"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="55"/>
+      <c r="AI5" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="AJ5" s="12"/>
-      <c r="AK5" s="12"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="12"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
     </row>
-    <row r="6" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="21"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="25"/>
-      <c r="Z6" s="26"/>
-      <c r="AF6" s="21"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="23"/>
-      <c r="AI6" s="12"/>
-      <c r="AJ6" s="12"/>
-      <c r="AK6" s="12"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="12"/>
+    <row r="6" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="56"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="19"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="46"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
     </row>
-    <row r="7" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="39"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="39"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="41"/>
-      <c r="X7" s="30"/>
-      <c r="Y7" s="31"/>
-      <c r="Z7" s="32"/>
-      <c r="AF7" s="27"/>
-      <c r="AG7" s="28"/>
-      <c r="AH7" s="29"/>
-      <c r="AI7" s="12"/>
-      <c r="AJ7" s="12"/>
-      <c r="AK7" s="12"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="12"/>
+    <row r="7" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="50"/>
+      <c r="Z7" s="51"/>
+      <c r="AF7" s="59"/>
+      <c r="AG7" s="60"/>
+      <c r="AH7" s="61"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
     </row>
-    <row r="8" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="42" t="s">
+    <row r="8" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="M8" s="43"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="33"/>
-      <c r="V8" s="34"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="18"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="20"/>
-      <c r="AF8" s="33"/>
-      <c r="AG8" s="34"/>
-      <c r="AH8" s="35"/>
-      <c r="AI8" s="12" t="s">
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="43"/>
+      <c r="Y8" s="44"/>
+      <c r="Z8" s="45"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="17"/>
+      <c r="AH8" s="18"/>
+      <c r="AI8" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="AJ8" s="12"/>
-      <c r="AK8" s="12"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="12"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
     </row>
-    <row r="9" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C9" s="21"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="45"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="47"/>
-      <c r="O9" s="45"/>
-      <c r="P9" s="46"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="45"/>
-      <c r="S9" s="46"/>
-      <c r="T9" s="47"/>
-      <c r="U9" s="36"/>
-      <c r="V9" s="37"/>
-      <c r="W9" s="38"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="25"/>
-      <c r="Z9" s="26"/>
-      <c r="AF9" s="36"/>
-      <c r="AG9" s="37"/>
-      <c r="AH9" s="38"/>
-      <c r="AI9" s="12"/>
-      <c r="AJ9" s="12"/>
-      <c r="AK9" s="12"/>
-      <c r="AL9" s="12"/>
-      <c r="AM9" s="12"/>
+    <row r="9" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="56"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="28"/>
+      <c r="P9" s="29"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="46"/>
+      <c r="Y9" s="47"/>
+      <c r="Z9" s="48"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="20"/>
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
     </row>
-    <row r="10" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="49"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="30"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="32"/>
-      <c r="AF10" s="39"/>
-      <c r="AG10" s="40"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="12"/>
-      <c r="AJ10" s="12"/>
-      <c r="AK10" s="12"/>
-      <c r="AL10" s="12"/>
-      <c r="AM10" s="12"/>
+    <row r="10" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="24"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="50"/>
+      <c r="Z10" s="51"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="23"/>
+      <c r="AH10" s="24"/>
+      <c r="AI10" s="52"/>
+      <c r="AJ10" s="52"/>
+      <c r="AK10" s="52"/>
+      <c r="AL10" s="52"/>
+      <c r="AM10" s="52"/>
     </row>
-    <row r="11" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="15" t="s">
+    <row r="11" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="51" t="s">
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="18"/>
-      <c r="Y11" s="19"/>
-      <c r="Z11" s="20"/>
-      <c r="AF11" s="42"/>
-      <c r="AG11" s="43"/>
-      <c r="AH11" s="44"/>
-      <c r="AI11" s="12" t="s">
+      <c r="P11" s="35"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="27"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="44"/>
+      <c r="Z11" s="45"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="26"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="AJ11" s="12"/>
-      <c r="AK11" s="12"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="12"/>
+      <c r="AJ11" s="52"/>
+      <c r="AK11" s="52"/>
+      <c r="AL11" s="52"/>
+      <c r="AM11" s="52"/>
     </row>
-    <row r="12" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="45"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="47"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="56"/>
-      <c r="R12" s="45"/>
-      <c r="S12" s="46"/>
-      <c r="T12" s="47"/>
-      <c r="U12" s="36"/>
-      <c r="V12" s="37"/>
-      <c r="W12" s="38"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="Z12" s="26"/>
-      <c r="AF12" s="45"/>
-      <c r="AG12" s="46"/>
-      <c r="AH12" s="47"/>
-      <c r="AI12" s="12"/>
-      <c r="AJ12" s="12"/>
-      <c r="AK12" s="12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="12"/>
+    <row r="12" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="38"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="47"/>
+      <c r="Z12" s="48"/>
+      <c r="AF12" s="28"/>
+      <c r="AG12" s="29"/>
+      <c r="AH12" s="30"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="52"/>
+      <c r="AK12" s="52"/>
+      <c r="AL12" s="52"/>
+      <c r="AM12" s="52"/>
     </row>
-    <row r="13" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="50"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="49"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="41"/>
-      <c r="X13" s="30"/>
-      <c r="Y13" s="31"/>
-      <c r="Z13" s="32"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="49"/>
-      <c r="AH13" s="50"/>
-      <c r="AI13" s="12"/>
-      <c r="AJ13" s="12"/>
-      <c r="AK13" s="12"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="12"/>
+    <row r="13" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="23"/>
+      <c r="W13" s="24"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="50"/>
+      <c r="Z13" s="51"/>
+      <c r="AF13" s="31"/>
+      <c r="AG13" s="32"/>
+      <c r="AH13" s="33"/>
+      <c r="AI13" s="52"/>
+      <c r="AJ13" s="52"/>
+      <c r="AK13" s="52"/>
+      <c r="AL13" s="52"/>
+      <c r="AM13" s="52"/>
     </row>
-    <row r="14" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="43"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="42" t="s">
+    <row r="14" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="S14" s="43"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="33"/>
-      <c r="V14" s="34"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="18"/>
-      <c r="Y14" s="19"/>
-      <c r="Z14" s="20"/>
-      <c r="AF14" s="51"/>
-      <c r="AG14" s="52"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="12" t="s">
+      <c r="S14" s="26"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="43"/>
+      <c r="Y14" s="44"/>
+      <c r="Z14" s="45"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="35"/>
+      <c r="AH14" s="36"/>
+      <c r="AI14" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="AJ14" s="12"/>
-      <c r="AK14" s="12"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="12"/>
+      <c r="AJ14" s="52"/>
+      <c r="AK14" s="52"/>
+      <c r="AL14" s="52"/>
+      <c r="AM14" s="52"/>
     </row>
-    <row r="15" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="21"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="45"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="47"/>
-      <c r="R15" s="45"/>
-      <c r="S15" s="46"/>
-      <c r="T15" s="47"/>
-      <c r="U15" s="36"/>
-      <c r="V15" s="37"/>
-      <c r="W15" s="38"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="25"/>
-      <c r="Z15" s="26"/>
-      <c r="AF15" s="54"/>
-      <c r="AG15" s="55"/>
-      <c r="AH15" s="56"/>
-      <c r="AI15" s="12"/>
-      <c r="AJ15" s="12"/>
-      <c r="AK15" s="12"/>
-      <c r="AL15" s="12"/>
-      <c r="AM15" s="12"/>
+    <row r="15" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="28"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="46"/>
+      <c r="Y15" s="47"/>
+      <c r="Z15" s="48"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="39"/>
+      <c r="AI15" s="52"/>
+      <c r="AJ15" s="52"/>
+      <c r="AK15" s="52"/>
+      <c r="AL15" s="52"/>
+      <c r="AM15" s="52"/>
     </row>
-    <row r="16" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="50"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="49"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="39"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="30"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="32"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="58"/>
-      <c r="AH16" s="59"/>
-      <c r="AI16" s="12"/>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="12"/>
-      <c r="AL16" s="12"/>
-      <c r="AM16" s="12"/>
+    <row r="16" spans="3:39" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="23"/>
+      <c r="W16" s="24"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="50"/>
+      <c r="Z16" s="51"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="41"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="52"/>
+      <c r="AJ16" s="52"/>
+      <c r="AK16" s="52"/>
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52"/>
     </row>
-    <row r="17" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="33" t="s">
+    <row r="17" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="16"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="V17" s="34"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="18"/>
-      <c r="Y17" s="19"/>
-      <c r="Z17" s="20"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="43"/>
+      <c r="Y17" s="44"/>
+      <c r="Z17" s="45"/>
     </row>
-    <row r="18" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="21"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="37"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="36"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="36"/>
-      <c r="V18" s="37"/>
-      <c r="W18" s="38"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="26"/>
+    <row r="18" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="46"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="48"/>
     </row>
-    <row r="19" spans="3:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="40"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="40"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="30"/>
-      <c r="Y19" s="31"/>
-      <c r="Z19" s="32"/>
+    <row r="19" spans="3:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="23"/>
+      <c r="T19" s="24"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="23"/>
+      <c r="W19" s="24"/>
+      <c r="X19" s="49"/>
+      <c r="Y19" s="50"/>
+      <c r="Z19" s="51"/>
     </row>
-    <row r="20" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="19"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="19"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="18"/>
-      <c r="Y20" s="19"/>
-      <c r="Z20" s="20"/>
+    <row r="20" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="43"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="45"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="44"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="44"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="44"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="43"/>
+      <c r="Y20" s="44"/>
+      <c r="Z20" s="45"/>
     </row>
-    <row r="21" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="24"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="24"/>
-      <c r="S21" s="25"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="24"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="24"/>
-      <c r="Y21" s="25"/>
-      <c r="Z21" s="26"/>
+    <row r="21" spans="3:26" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="46"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="46"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="46"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="48"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
+      <c r="X21" s="46"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="48"/>
     </row>
-    <row r="22" spans="3:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C22" s="30"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="32"/>
-      <c r="L22" s="30"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="32"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="32"/>
-      <c r="U22" s="30"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="32"/>
-      <c r="X22" s="30"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="32"/>
+    <row r="22" spans="3:26" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="49"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="49"/>
+      <c r="M22" s="50"/>
+      <c r="N22" s="51"/>
+      <c r="O22" s="49"/>
+      <c r="P22" s="50"/>
+      <c r="Q22" s="51"/>
+      <c r="R22" s="49"/>
+      <c r="S22" s="50"/>
+      <c r="T22" s="51"/>
+      <c r="U22" s="49"/>
+      <c r="V22" s="50"/>
+      <c r="W22" s="51"/>
+      <c r="X22" s="49"/>
+      <c r="Y22" s="50"/>
+      <c r="Z22" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="AF8:AH10"/>
-    <mergeCell ref="AF11:AH13"/>
-    <mergeCell ref="AF14:AH16"/>
-    <mergeCell ref="AF2:AH4"/>
-    <mergeCell ref="AI2:AM4"/>
-    <mergeCell ref="AI5:AM7"/>
-    <mergeCell ref="AI8:AM10"/>
-    <mergeCell ref="AI11:AM13"/>
-    <mergeCell ref="U20:W22"/>
-    <mergeCell ref="X20:Z22"/>
-    <mergeCell ref="C20:E22"/>
-    <mergeCell ref="F20:H22"/>
-    <mergeCell ref="I20:K22"/>
-    <mergeCell ref="L20:N22"/>
-    <mergeCell ref="O20:Q22"/>
-    <mergeCell ref="R20:T22"/>
-    <mergeCell ref="I5:K7"/>
-    <mergeCell ref="L5:N7"/>
-    <mergeCell ref="O5:Q7"/>
-    <mergeCell ref="I8:K10"/>
-    <mergeCell ref="I11:K13"/>
-    <mergeCell ref="AF5:AH7"/>
-    <mergeCell ref="O8:Q10"/>
-    <mergeCell ref="R8:T10"/>
-    <mergeCell ref="L11:N13"/>
-    <mergeCell ref="L14:N16"/>
-    <mergeCell ref="O11:Q13"/>
-    <mergeCell ref="C14:E16"/>
-    <mergeCell ref="F14:H16"/>
-    <mergeCell ref="I14:K16"/>
-    <mergeCell ref="O14:Q16"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="F17:H19"/>
-    <mergeCell ref="I17:K19"/>
-    <mergeCell ref="L17:N19"/>
-    <mergeCell ref="O17:Q19"/>
-    <mergeCell ref="R17:T19"/>
-    <mergeCell ref="U17:W19"/>
-    <mergeCell ref="X17:Z19"/>
-    <mergeCell ref="AI14:AM16"/>
-    <mergeCell ref="R14:T16"/>
-    <mergeCell ref="U14:W16"/>
-    <mergeCell ref="X14:Z16"/>
-    <mergeCell ref="U11:W13"/>
-    <mergeCell ref="X11:Z13"/>
-    <mergeCell ref="U8:W10"/>
-    <mergeCell ref="X8:Z10"/>
-    <mergeCell ref="U5:W7"/>
-    <mergeCell ref="X5:Z7"/>
     <mergeCell ref="U2:W4"/>
     <mergeCell ref="X2:Z4"/>
     <mergeCell ref="C11:E13"/>
@@ -11142,7 +11095,56 @@
     <mergeCell ref="C5:E7"/>
     <mergeCell ref="F5:H7"/>
     <mergeCell ref="C8:E10"/>
+    <mergeCell ref="U11:W13"/>
+    <mergeCell ref="X11:Z13"/>
+    <mergeCell ref="U8:W10"/>
+    <mergeCell ref="X8:Z10"/>
+    <mergeCell ref="U5:W7"/>
+    <mergeCell ref="X5:Z7"/>
+    <mergeCell ref="R17:T19"/>
+    <mergeCell ref="U17:W19"/>
+    <mergeCell ref="X17:Z19"/>
+    <mergeCell ref="AI14:AM16"/>
+    <mergeCell ref="R14:T16"/>
+    <mergeCell ref="U14:W16"/>
+    <mergeCell ref="X14:Z16"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="F17:H19"/>
+    <mergeCell ref="I17:K19"/>
+    <mergeCell ref="L17:N19"/>
+    <mergeCell ref="O17:Q19"/>
+    <mergeCell ref="R8:T10"/>
+    <mergeCell ref="L11:N13"/>
+    <mergeCell ref="L14:N16"/>
+    <mergeCell ref="O11:Q13"/>
+    <mergeCell ref="C14:E16"/>
+    <mergeCell ref="F14:H16"/>
+    <mergeCell ref="I14:K16"/>
+    <mergeCell ref="O14:Q16"/>
     <mergeCell ref="F8:H10"/>
+    <mergeCell ref="I5:K7"/>
+    <mergeCell ref="L5:N7"/>
+    <mergeCell ref="O5:Q7"/>
+    <mergeCell ref="I8:K10"/>
+    <mergeCell ref="I11:K13"/>
+    <mergeCell ref="O8:Q10"/>
+    <mergeCell ref="U20:W22"/>
+    <mergeCell ref="X20:Z22"/>
+    <mergeCell ref="C20:E22"/>
+    <mergeCell ref="F20:H22"/>
+    <mergeCell ref="I20:K22"/>
+    <mergeCell ref="L20:N22"/>
+    <mergeCell ref="O20:Q22"/>
+    <mergeCell ref="R20:T22"/>
+    <mergeCell ref="AF8:AH10"/>
+    <mergeCell ref="AF11:AH13"/>
+    <mergeCell ref="AF14:AH16"/>
+    <mergeCell ref="AF2:AH4"/>
+    <mergeCell ref="AI2:AM4"/>
+    <mergeCell ref="AI5:AM7"/>
+    <mergeCell ref="AI8:AM10"/>
+    <mergeCell ref="AI11:AM13"/>
+    <mergeCell ref="AF5:AH7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
